--- a/frontend/src/assets/data/User_CompanyExample.xlsx
+++ b/frontend/src/assets/data/User_CompanyExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projeto\surf-management-app\frontend\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC1EDAE-B33F-4A30-8EF8-1C50266009D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932FC1FC-6C46-4669-A236-69512FF931E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{364814C2-08EB-4B71-94F0-56459F0CD70F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>company/User</t>
   </si>
@@ -73,9 +73,6 @@
     <t>email</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin </t>
-  </si>
-  <si>
     <t>genero</t>
   </si>
   <si>
@@ -118,16 +115,10 @@
     <t>2050-031</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>effective</t>
   </si>
   <si>
     <t>PT50001234270000000567833</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>Lisboa</t>
@@ -562,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1B7D19-0DD8-49AE-8025-B72AC17EA256}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,16 +569,15 @@
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,30 +615,27 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>250549361</v>
@@ -657,51 +644,48 @@
         <v>459254851</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="3">
         <v>35574</v>
       </c>
       <c r="I2" s="3">
-        <v>43903</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>43960</v>
+      </c>
+      <c r="J2" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>962681730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>962681730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>250549381</v>
@@ -710,10 +694,10 @@
         <v>459254751</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="3">
         <v>32625</v>
@@ -721,71 +705,67 @@
       <c r="I3" s="3">
         <v>44269</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
+      <c r="J3" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2">
+        <v>925827332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>925827332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>234517789</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="2">
+        <v>38</v>
+      </c>
+      <c r="P4" s="2">
         <v>938172388</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -802,9 +782,8 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -821,9 +800,8 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -840,9 +818,8 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -859,9 +836,8 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -878,9 +854,8 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -897,9 +872,8 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -916,9 +890,8 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -935,9 +908,8 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -954,9 +926,8 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -973,9 +944,8 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -992,9 +962,8 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1011,9 +980,8 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1030,9 +998,8 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1049,9 +1016,8 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1068,9 +1034,8 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1087,9 +1052,8 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1106,9 +1070,8 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1125,9 +1088,8 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1144,9 +1106,8 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1163,9 +1124,8 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1182,9 +1142,8 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1201,9 +1160,8 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1220,9 +1178,8 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1239,9 +1196,8 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1258,7 +1214,6 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/frontend/src/assets/data/User_CompanyExample.xlsx
+++ b/frontend/src/assets/data/User_CompanyExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projeto\surf-management-app\frontend\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932FC1FC-6C46-4669-A236-69512FF931E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9F67B-CEE4-4FE6-9591-1C764BC7D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{364814C2-08EB-4B71-94F0-56459F0CD70F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>company/User</t>
   </si>
@@ -58,12 +58,6 @@
     <t>nacionalidade</t>
   </si>
   <si>
-    <t>date de nascimento</t>
-  </si>
-  <si>
-    <t>date de entrada no clube</t>
-  </si>
-  <si>
     <t>joia paga</t>
   </si>
   <si>
@@ -155,6 +149,21 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>date de entrada no clube(dd/mm/aaaa)</t>
+  </si>
+  <si>
+    <t>date de nascimento(dd/mm/aaaa)</t>
+  </si>
+  <si>
+    <t>24/5/1997</t>
+  </si>
+  <si>
+    <t>27/5/1989</t>
+  </si>
+  <si>
+    <t>14/5/2021</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,8 +576,9 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
@@ -600,42 +610,42 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>250549361</v>
@@ -644,34 +654,34 @@
         <v>459254851</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3">
-        <v>35574</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I2" s="3">
-        <v>43960</v>
+        <v>44079</v>
       </c>
       <c r="J2" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="P2" s="2">
         <v>962681730</v>
@@ -679,13 +689,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>250549381</v>
@@ -694,34 +704,34 @@
         <v>459254751</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3">
-        <v>32625</v>
-      </c>
-      <c r="I3" s="3">
-        <v>44269</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="P3" s="2">
         <v>925827332</v>
@@ -729,20 +739,20 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>234517789</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -750,16 +760,16 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="P4" s="2">
         <v>938172388</v>

--- a/frontend/src/assets/data/User_CompanyExample.xlsx
+++ b/frontend/src/assets/data/User_CompanyExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projeto\surf-management-app\frontend\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9F67B-CEE4-4FE6-9591-1C764BC7D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903A4C14-2325-4764-89F3-C6E873CCABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{364814C2-08EB-4B71-94F0-56459F0CD70F}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>nacionalidade</t>
   </si>
   <si>
-    <t>joia paga</t>
-  </si>
-  <si>
     <t>morada</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>14/5/2021</t>
+  </si>
+  <si>
+    <t>joia paga(TRUE/FALSE)</t>
   </si>
 </sst>
 </file>
@@ -564,9 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1B7D19-0DD8-49AE-8025-B72AC17EA256}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -610,42 +608,42 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>250549361</v>
@@ -654,13 +652,13 @@
         <v>459254851</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="3">
         <v>44079</v>
@@ -669,19 +667,19 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="P2" s="2">
         <v>962681730</v>
@@ -689,13 +687,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>250549381</v>
@@ -704,34 +702,34 @@
         <v>459254751</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="P3" s="2">
         <v>925827332</v>
@@ -739,20 +737,20 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>234517789</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -760,16 +758,16 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="P4" s="2">
         <v>938172388</v>

--- a/frontend/src/assets/data/User_CompanyExample.xlsx
+++ b/frontend/src/assets/data/User_CompanyExample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projeto\surf-management-app\frontend\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903A4C14-2325-4764-89F3-C6E873CCABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDD6444-0BD9-4755-BC01-7060EEF38242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{364814C2-08EB-4B71-94F0-56459F0CD70F}"/>
   </bookViews>
@@ -37,45 +37,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
-    <t>company/User</t>
-  </si>
-  <si>
-    <t>tipo de membro</t>
-  </si>
-  <si>
-    <t>iban</t>
-  </si>
-  <si>
-    <t>nif</t>
-  </si>
-  <si>
     <t>cc</t>
   </si>
   <si>
-    <t>nome completo</t>
-  </si>
-  <si>
-    <t>nacionalidade</t>
-  </si>
-  <si>
-    <t>morada</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>genero</t>
-  </si>
-  <si>
-    <t>localizacao</t>
-  </si>
-  <si>
-    <t>código postal</t>
-  </si>
-  <si>
-    <t>numero de telefone</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -148,12 +112,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>date de entrada no clube(dd/mm/aaaa)</t>
-  </si>
-  <si>
-    <t>date de nascimento(dd/mm/aaaa)</t>
-  </si>
-  <si>
     <t>24/5/1997</t>
   </si>
   <si>
@@ -164,6 +122,48 @@
   </si>
   <si>
     <t>joia paga(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>Company/User</t>
+  </si>
+  <si>
+    <t>Tipo de membro</t>
+  </si>
+  <si>
+    <t>Iban</t>
+  </si>
+  <si>
+    <t>Nif</t>
+  </si>
+  <si>
+    <t>Nome completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacionalidade(em Inglês) </t>
+  </si>
+  <si>
+    <t>Data de nascimento(dd/mm/aaaa)</t>
+  </si>
+  <si>
+    <t>Data de entrada no clube(dd/mm/aaaa)</t>
+  </si>
+  <si>
+    <t>género</t>
+  </si>
+  <si>
+    <t>Localização</t>
+  </si>
+  <si>
+    <t>Morada</t>
+  </si>
+  <si>
+    <t>Código postal</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Número de telefone</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1B7D19-0DD8-49AE-8025-B72AC17EA256}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -573,7 +575,7 @@
     <col min="3" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
@@ -587,63 +589,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>250549361</v>
@@ -652,13 +654,13 @@
         <v>459254851</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I2" s="3">
         <v>44079</v>
@@ -667,19 +669,19 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P2" s="2">
         <v>962681730</v>
@@ -687,13 +689,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>250549381</v>
@@ -702,34 +704,34 @@
         <v>459254751</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>925827332</v>
@@ -737,20 +739,20 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>234517789</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -758,16 +760,16 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="P4" s="2">
         <v>938172388</v>
